--- a/API TCs.xlsx
+++ b/API TCs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Mr-Mandoob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0CF7F0-1C46-4110-B899-AE9EDB4E48BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF51E236-490B-4289-8D0E-1DD55D1ECBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +237,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -269,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -282,6 +291,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -566,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,16 +594,20 @@
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -781,6 +797,9 @@
     <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://api.nationalize.io/?name=nathaniel" xr:uid="{13AA8665-2708-4FE4-826C-2C5FE6DC75FB}"/>
   </hyperlinks>
